--- a/data/scheduling_DNN/predict/0.5/result18.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result18.xlsx
@@ -570,10 +570,10 @@
         <v>1.269690036773682</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.3992403447628021</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2123335003852844</v>
+        <v>0.7576826214790344</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.010738849639893</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4018091559410095</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03950616717338562</v>
+        <v>0.3707953691482544</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.876971960067749</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4097876846790314</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2396322041749954</v>
+        <v>0.2182611525058746</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8700790405273438</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.4220067262649536</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2696655988693237</v>
+        <v>0.2007687985897064</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8742280006408691</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.4032530784606934</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09834088385105133</v>
+        <v>0.2218173742294312</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9241909980773926</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.4009614288806915</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07251785695552826</v>
+        <v>0.273769199848175</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8601181507110596</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.5401004552841187</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2304233610630035</v>
+        <v>0.1024113222956657</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8665289878845215</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4025664329528809</v>
       </c>
       <c r="W9" t="n">
-        <v>0.265988826751709</v>
+        <v>0.2152612507343292</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8739249706268311</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.3972680866718292</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1366762965917587</v>
+        <v>0.2272017896175385</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9321689605712891</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.5025256872177124</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07584308087825775</v>
+        <v>0.1845933496952057</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8607571125030518</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4102048277854919</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2605715095996857</v>
+        <v>0.2029973566532135</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8682320117950439</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.8992871046066284</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04553111642599106</v>
+        <v>0.000964418810326606</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8625099658966064</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.3972825407981873</v>
       </c>
       <c r="W14" t="n">
-        <v>0.006241168826818466</v>
+        <v>0.2164365500211716</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.949289083480835</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4844391942024231</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1663929373025894</v>
+        <v>0.2160854190587997</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8655190467834473</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.4037581980228424</v>
       </c>
       <c r="W16" t="n">
-        <v>0.02836018241941929</v>
+        <v>0.2132230848073959</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8620970249176025</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4022410213947296</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1211691722273827</v>
+        <v>0.2114675492048264</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8683829307556152</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.8705998659133911</v>
       </c>
       <c r="W18" t="n">
-        <v>0.003597218543291092</v>
+        <v>4.914801593258744e-06</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9064829349517822</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8712484240531921</v>
       </c>
       <c r="W19" t="n">
-        <v>0.252817302942276</v>
+        <v>0.001241470803506672</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8641948699951172</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.8699780702590942</v>
       </c>
       <c r="W20" t="n">
-        <v>0.129516676068306</v>
+        <v>3.344540527905338e-05</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.855443000793457</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4127477407455444</v>
       </c>
       <c r="W21" t="n">
-        <v>0.08670181035995483</v>
+        <v>0.1959790885448456</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5343179702758789</v>
       </c>
       <c r="V22" t="n">
-        <v>0.672245979309082</v>
+        <v>0.4992532134056091</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01902413554489613</v>
+        <v>0.001229537185281515</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5227479934692383</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.399195522069931</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02311950735747814</v>
+        <v>0.0152652133256197</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5283949375152588</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.4031715095043182</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07923176884651184</v>
+        <v>0.01568090729415417</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5432741641998291</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.486926406621933</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01950852014124393</v>
+        <v>0.003175069810822606</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.531296968460083</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.8724364042282104</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01477784290909767</v>
+        <v>0.1163761168718338</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5142159461975098</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.3972910046577454</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02208021841943264</v>
+        <v>0.0136714419350028</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5147120952606201</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8806105256080627</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0001723580062389374</v>
+        <v>0.1338816583156586</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5744509696960449</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4096795320510864</v>
       </c>
       <c r="W29" t="n">
-        <v>0.001092960592359304</v>
+        <v>0.0271496269851923</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5210068225860596</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.3972682952880859</v>
       </c>
       <c r="W30" t="n">
-        <v>4.319991057855077e-05</v>
+        <v>0.01531122345477343</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5136299133300781</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8988043069839478</v>
       </c>
       <c r="W31" t="n">
-        <v>0.08211946487426758</v>
+        <v>0.1483593136072159</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.537571907043457</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.4948406219482422</v>
       </c>
       <c r="W32" t="n">
-        <v>1.100603822123958e-05</v>
+        <v>0.00182596268132329</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5125949382781982</v>
       </c>
       <c r="V33" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4956362843513489</v>
       </c>
       <c r="W33" t="n">
-        <v>0.07306687533855438</v>
+        <v>0.000287595932604745</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5159950256347656</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.8692036867141724</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01623605564236641</v>
+        <v>0.1247563585639</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5142068862915039</v>
       </c>
       <c r="V35" t="n">
-        <v>0.944080114364624</v>
+        <v>0.5098155736923218</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1847909986972809</v>
+        <v>1.928362689795904e-05</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.516063928604126</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8990229964256287</v>
       </c>
       <c r="W36" t="n">
-        <v>5.218518253968796e-06</v>
+        <v>0.1466576457023621</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.529803991317749</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8691207766532898</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0006470074877142906</v>
+        <v>0.1151358783245087</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5123329162597656</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.8872997164726257</v>
       </c>
       <c r="W38" t="n">
-        <v>0.00119258533231914</v>
+        <v>0.1406001001596451</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5132081508636475</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4044135808944702</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03397838026285172</v>
+        <v>0.01183625869452953</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5675179958343506</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.421475887298584</v>
       </c>
       <c r="W40" t="n">
-        <v>0.004138477146625519</v>
+        <v>0.02132829837501049</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5141711235046387</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.5167205929756165</v>
       </c>
       <c r="W41" t="n">
-        <v>1.27982971775964e-07</v>
+        <v>6.499794380943058e-06</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3912451267242432</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.4185076951980591</v>
       </c>
       <c r="W42" t="n">
-        <v>0.02874200791120529</v>
+        <v>0.0007432476268149912</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4188210964202881</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.4905462563037872</v>
       </c>
       <c r="W43" t="n">
-        <v>0.004630899522453547</v>
+        <v>0.005144498776644468</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3873109817504883</v>
       </c>
       <c r="V44" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.3972919583320618</v>
       </c>
       <c r="W44" t="n">
-        <v>0.3184008002281189</v>
+        <v>9.961989417206496e-05</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3885190486907959</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8926783204078674</v>
       </c>
       <c r="W45" t="n">
-        <v>0.02134301140904427</v>
+        <v>0.2541765570640564</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4428520202636719</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8742039799690247</v>
       </c>
       <c r="W46" t="n">
-        <v>5.929223698331043e-05</v>
+        <v>0.1860645115375519</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4218389987945557</v>
       </c>
       <c r="V47" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.4301069974899292</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1305794715881348</v>
+        <v>6.835980457253754e-05</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4087378978729248</v>
       </c>
       <c r="V48" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.866004467010498</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1402789354324341</v>
+        <v>0.2090927213430405</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3881540298461914</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.5167520046234131</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0207512266933918</v>
+        <v>0.01653743907809258</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3886270523071289</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.4884581863880157</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1750714629888535</v>
+        <v>0.009966255165636539</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3858070373535156</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.8618720173835754</v>
       </c>
       <c r="W51" t="n">
-        <v>0.06515590101480484</v>
+        <v>0.2266378700733185</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4010021686553955</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.399234265089035</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01776069402694702</v>
+        <v>3.125483090116177e-06</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3893020153045654</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.5161248445510864</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01267947815358639</v>
+        <v>0.01608403027057648</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3831720352172852</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4988666176795959</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0004168102750554681</v>
+        <v>0.01338523626327515</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3851089477539062</v>
       </c>
       <c r="V55" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.5400974750518799</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1580893993377686</v>
+        <v>0.0240214429795742</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3868100643157959</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.4228391051292419</v>
       </c>
       <c r="W56" t="n">
-        <v>0.06538645178079605</v>
+        <v>0.00129809183999896</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3875558376312256</v>
       </c>
       <c r="V57" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5165886878967285</v>
       </c>
       <c r="W57" t="n">
-        <v>0.001388233969919384</v>
+        <v>0.01664947718381882</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3889069557189941</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.5460623502731323</v>
       </c>
       <c r="W58" t="n">
-        <v>0.02286116778850555</v>
+        <v>0.02469781786203384</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4009251594543457</v>
       </c>
       <c r="V59" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.4228235483169556</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1674003154039383</v>
+        <v>0.0004795394488610327</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3869838714599609</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8663249611854553</v>
       </c>
       <c r="W60" t="n">
-        <v>0.08127254992723465</v>
+        <v>0.2297678738832474</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3930368423461914</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.8671324253082275</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0004801713803317398</v>
+        <v>0.2247666269540787</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9245188236236572</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.8739567399024963</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1753622889518738</v>
+        <v>0.002556524239480495</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9382460117340088</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.5158525705337524</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1222884878516197</v>
+        <v>0.1784162223339081</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8619019985198975</v>
       </c>
       <c r="V64" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.421732634305954</v>
       </c>
       <c r="W64" t="n">
-        <v>0.00625066552311182</v>
+        <v>0.1937490701675415</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8620679378509521</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.8856992125511169</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2104157209396362</v>
+        <v>0.0005584371392615139</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8786609172821045</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4853212833404541</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04266989603638649</v>
+        <v>0.1547160744667053</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8612771034240723</v>
       </c>
       <c r="V67" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.4036001563072205</v>
       </c>
       <c r="W67" t="n">
-        <v>0.006136192940175533</v>
+        <v>0.2094681859016418</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8796980381011963</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.4228861629962921</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1338655650615692</v>
+        <v>0.2086770832538605</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8565430641174316</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.8567776679992676</v>
       </c>
       <c r="W69" t="n">
-        <v>0.03027986735105515</v>
+        <v>5.503898137249053e-08</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8605020046234131</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.8993608355522156</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1461800187826157</v>
+        <v>0.001510008703917265</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.858828067779541</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.4023191034793854</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2581133246421814</v>
+        <v>0.2084004282951355</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8659281730651855</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.4927695989608765</v>
       </c>
       <c r="W72" t="n">
-        <v>0.04487327113747597</v>
+        <v>0.139247328042984</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8811218738555908</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.3992053270339966</v>
       </c>
       <c r="W73" t="n">
-        <v>0.08546527475118637</v>
+        <v>0.2322435528039932</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8621559143066406</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.5003939867019653</v>
       </c>
       <c r="W74" t="n">
-        <v>0.04016025364398956</v>
+        <v>0.1308716982603073</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9281289577484131</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.3972336053848267</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2755302786827087</v>
+        <v>0.2818498611450195</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8757820129394531</v>
       </c>
       <c r="V76" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.5156362652778625</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2496115565299988</v>
+        <v>0.1297049522399902</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8591148853302002</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4929893910884857</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2074427157640457</v>
+        <v>0.1340478807687759</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8604319095611572</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8730250000953674</v>
       </c>
       <c r="W78" t="n">
-        <v>0.06770113855600357</v>
+        <v>0.0001585859281476587</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9253880977630615</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.5079275369644165</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1474574208259583</v>
+        <v>0.1742733269929886</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8592870235443115</v>
       </c>
       <c r="V80" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.881877064704895</v>
       </c>
       <c r="W80" t="n">
-        <v>0.005960805807262659</v>
+        <v>0.0005103099392727017</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8524949550628662</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.873685359954834</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2520549595355988</v>
+        <v>0.0004490332503337413</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5408709049224854</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.397253155708313</v>
       </c>
       <c r="W82" t="n">
-        <v>0.001345495460554957</v>
+        <v>0.02062605880200863</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5216939449310303</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.5164881944656372</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02921078912913799</v>
+        <v>2.709983709792141e-05</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5686008930206299</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8579452037811279</v>
       </c>
       <c r="W84" t="n">
-        <v>0.005485725589096546</v>
+        <v>0.0837201327085495</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5140869617462158</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4036230444908142</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01220574043691158</v>
+        <v>0.01220227684825659</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5138490200042725</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.8566438555717468</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0005375448963604867</v>
+        <v>0.1175082996487617</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5116360187530518</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.4989972114562988</v>
       </c>
       <c r="W87" t="n">
-        <v>0.01167062111198902</v>
+        <v>0.0001597394439158961</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5138940811157227</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8738950490951538</v>
       </c>
       <c r="W88" t="n">
-        <v>0.001318763592280447</v>
+        <v>0.1296007037162781</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5176048278808594</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.5160534381866455</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01843578182160854</v>
+        <v>2.406809926469577e-06</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5183300971984863</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.490705132484436</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0180839728564024</v>
+        <v>0.0007631386979483068</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5258800983428955</v>
       </c>
       <c r="V91" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.5260607004165649</v>
       </c>
       <c r="W91" t="n">
-        <v>0.1779043972492218</v>
+        <v>3.261710901369952e-08</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5176708698272705</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.4035016298294067</v>
       </c>
       <c r="W92" t="n">
-        <v>0.004787531681358814</v>
+        <v>0.01303461566567421</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5166809558868408</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.4010012149810791</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01278772577643394</v>
+        <v>0.01338180247694254</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5093381404876709</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.4981483817100525</v>
       </c>
       <c r="W94" t="n">
-        <v>0.003438684856519103</v>
+        <v>0.0001252107031177729</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5585439205169678</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.4032585322856903</v>
       </c>
       <c r="W95" t="n">
-        <v>0.02400013618171215</v>
+        <v>0.02411355264484882</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5156550407409668</v>
       </c>
       <c r="V96" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4918290972709656</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01811820641160011</v>
+        <v>0.0005676755681633949</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5176880359649658</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.498664379119873</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02785578183829784</v>
+        <v>0.0003618995251599699</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5105881690979004</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.4926044046878815</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01723254658281803</v>
+        <v>0.0003234157920815051</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5191740989685059</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.8804739117622375</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02835747227072716</v>
+        <v>0.1305375546216965</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5402109622955322</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.5150402188301086</v>
       </c>
       <c r="W100" t="n">
-        <v>0.001366174197755754</v>
+        <v>0.0006335663492791355</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5146641731262207</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.4228187799453735</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0007136933854781091</v>
+        <v>0.008435576222836971</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4083199501037598</v>
       </c>
       <c r="V102" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8723070621490479</v>
       </c>
       <c r="W102" t="n">
-        <v>0.009216815233230591</v>
+        <v>0.2152840346097946</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3989789485931396</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.4964373707771301</v>
       </c>
       <c r="W103" t="n">
-        <v>0.01330479886382818</v>
+        <v>0.009498144499957561</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3870809078216553</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4045765995979309</v>
       </c>
       <c r="W104" t="n">
-        <v>0.01339802425354719</v>
+        <v>0.0003060992166865617</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3945848941802979</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.3975283801555634</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0001825979124987498</v>
+        <v>8.664109373057727e-06</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3872430324554443</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.3992390930652618</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0001407702075084671</v>
+        <v>0.0001439054758520797</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.388275146484375</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.411404550075531</v>
       </c>
       <c r="W107" t="n">
-        <v>0.08655942976474762</v>
+        <v>0.0005349693237803876</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3869559764862061</v>
       </c>
       <c r="V108" t="n">
-        <v>0.541418194770813</v>
+        <v>0.8671047687530518</v>
       </c>
       <c r="W108" t="n">
-        <v>0.02385857701301575</v>
+        <v>0.2305428683757782</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3874819278717041</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8804155588150024</v>
       </c>
       <c r="W109" t="n">
-        <v>0.000252959318459034</v>
+        <v>0.2429835647344589</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3869829177856445</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.9011016488075256</v>
       </c>
       <c r="W110" t="n">
-        <v>0.07255356013774872</v>
+        <v>0.2643180787563324</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3910839557647705</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.4033290147781372</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01548060029745102</v>
+        <v>0.000149941464769654</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4147169589996338</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.3972665071487427</v>
       </c>
       <c r="W112" t="n">
-        <v>0.0001224079896928743</v>
+        <v>0.0003045182675123215</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3924050331115723</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4109646677970886</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0001249853667104617</v>
+        <v>0.0003444600442890078</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.390070915222168</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.3993626832962036</v>
       </c>
       <c r="W114" t="n">
-        <v>0.001543714315630496</v>
+        <v>8.6336956883315e-05</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3916049003601074</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.8740662932395935</v>
       </c>
       <c r="W115" t="n">
-        <v>0.01172231324017048</v>
+        <v>0.2327689975500107</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3872580528259277</v>
       </c>
       <c r="V116" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8734204173088074</v>
       </c>
       <c r="W116" t="n">
-        <v>0.1565714925527573</v>
+        <v>0.2363538444042206</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3892989158630371</v>
       </c>
       <c r="V117" t="n">
-        <v>0.514564037322998</v>
+        <v>0.498799741268158</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01569135114550591</v>
+        <v>0.01199043076485395</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4139010906219482</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.397275298833847</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0007274081581272185</v>
+        <v>0.0002764169475995004</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4412240982055664</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.5092021822929382</v>
       </c>
       <c r="W119" t="n">
-        <v>0.005488993134349585</v>
+        <v>0.004621020052582026</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3907618522644043</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.507834792137146</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02276052348315716</v>
+        <v>0.01370607316493988</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3884119987487793</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4114439785480499</v>
       </c>
       <c r="W121" t="n">
-        <v>0.001447092392481863</v>
+        <v>0.0005304720834828913</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8601222038269043</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.3975503146648407</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2308192402124405</v>
+        <v>0.2139727473258972</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9245061874389648</v>
       </c>
       <c r="V123" t="n">
-        <v>0.466268926858902</v>
+        <v>0.494398295879364</v>
       </c>
       <c r="W123" t="n">
-        <v>0.209981381893158</v>
+        <v>0.1849928051233292</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9203100204467773</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8749706149101257</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1653220057487488</v>
+        <v>0.002055661752820015</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8656120300292969</v>
       </c>
       <c r="V125" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.8833251595497131</v>
       </c>
       <c r="W125" t="n">
-        <v>0.006506206467747688</v>
+        <v>0.000313754950184375</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8851768970489502</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4035389423370361</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2539269626140594</v>
+        <v>0.2319751232862473</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8620259761810303</v>
       </c>
       <c r="V127" t="n">
-        <v>0.656647801399231</v>
+        <v>0.4881412386894226</v>
       </c>
       <c r="W127" t="n">
-        <v>0.04218019545078278</v>
+        <v>0.1397897899150848</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9070391654968262</v>
       </c>
       <c r="V128" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.4113933145999908</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2876205742359161</v>
+        <v>0.2456648051738739</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8604631423950195</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.3972415924072266</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1190422922372818</v>
+        <v>0.2145742028951645</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8581531047821045</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.5159527659416199</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2066230773925781</v>
+        <v>0.1171010732650757</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8741350173950195</v>
       </c>
       <c r="V131" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.5161212086677551</v>
       </c>
       <c r="W131" t="n">
-        <v>0.008217415772378445</v>
+        <v>0.1281738877296448</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9584860801696777</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.3975669741630554</v>
       </c>
       <c r="W132" t="n">
-        <v>0.19758340716362</v>
+        <v>0.3146302402019501</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8725981712341309</v>
       </c>
       <c r="V133" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4228512346744537</v>
       </c>
       <c r="W133" t="n">
-        <v>0.005669206846505404</v>
+        <v>0.2022723108530045</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8590209484100342</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.4952788352966309</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1186919584870338</v>
+        <v>0.1323083192110062</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8762891292572021</v>
       </c>
       <c r="V135" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4918714165687561</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2765023708343506</v>
+        <v>0.1477769762277603</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8743970394134521</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.3977015018463135</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1200541779398918</v>
+        <v>0.2272386401891708</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8700361251831055</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.8695552945137024</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2175116091966629</v>
+        <v>2.311981290858967e-07</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8490619659423828</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.8860853314399719</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1190181076526642</v>
+        <v>0.001370729645714164</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8542399406433105</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.5080231428146362</v>
       </c>
       <c r="W139" t="n">
-        <v>0.09773933887481689</v>
+        <v>0.1198660731315613</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8613569736480713</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.5007179975509644</v>
       </c>
       <c r="W140" t="n">
-        <v>0.003075108164921403</v>
+        <v>0.1300604641437531</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.865792989730835</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.3972945809364319</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2136261016130447</v>
+        <v>0.2194907516241074</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5194821357727051</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.4934069514274597</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0002433738118270412</v>
+        <v>0.0006799152470193803</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5194950103759766</v>
       </c>
       <c r="V143" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.397267073392868</v>
       </c>
       <c r="W143" t="n">
-        <v>0.08673825114965439</v>
+        <v>0.01493966858834028</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5146219730377197</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4034740030765533</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0001634902000660077</v>
+        <v>0.01235387101769447</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5113160610198975</v>
       </c>
       <c r="V145" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.409876674413681</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01700861379504204</v>
+        <v>0.01028994936496019</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5186669826507568</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.4931012392044067</v>
       </c>
       <c r="W146" t="n">
-        <v>0.02951815351843834</v>
+        <v>0.0006536072469316423</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5272018909454346</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8736832737922668</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0007090830476954579</v>
+        <v>0.120049349963665</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5150139331817627</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.5159337520599365</v>
       </c>
       <c r="W148" t="n">
-        <v>1.226719064106874e-06</v>
+        <v>8.460667686449597e-07</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5216619968414307</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.5004028677940369</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0001641798880882561</v>
+        <v>0.0004519505600910634</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5699019432067871</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8763065338134766</v>
       </c>
       <c r="W150" t="n">
-        <v>0.001780998427420855</v>
+        <v>0.09388377517461777</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.516726016998291</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.8798111081123352</v>
       </c>
       <c r="W151" t="n">
-        <v>0.03260070458054543</v>
+        <v>0.1318307816982269</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5152320861816406</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.5070328712463379</v>
       </c>
       <c r="W152" t="n">
-        <v>0.03346399217844009</v>
+        <v>6.722712714690715e-05</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5111620426177979</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.4044080972671509</v>
       </c>
       <c r="W153" t="n">
-        <v>0.03504788130521774</v>
+        <v>0.01139640528708696</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5128259658813477</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.5159657001495361</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0001216442105942406</v>
+        <v>9.85793121799361e-06</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5488100051879883</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4221454560756683</v>
       </c>
       <c r="W155" t="n">
-        <v>0.03002200275659561</v>
+        <v>0.01604390889406204</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5195050239562988</v>
       </c>
       <c r="V156" t="n">
-        <v>0.381181538105011</v>
+        <v>0.8621973395347595</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01913338713347912</v>
+        <v>0.1174380257725716</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.520866870880127</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.5164458155632019</v>
       </c>
       <c r="W157" t="n">
-        <v>0.02615618519484997</v>
+        <v>1.954573053808417e-05</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5192098617553711</v>
       </c>
       <c r="V158" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4989221394062042</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02836726047098637</v>
+        <v>0.0004115916672162712</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5162031650543213</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4032984375953674</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01918326690793037</v>
+        <v>0.01274747774004936</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5165669918060303</v>
       </c>
       <c r="V160" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4109697937965393</v>
       </c>
       <c r="W160" t="n">
-        <v>0.09242282807826996</v>
+        <v>0.01115076802670956</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5403211116790771</v>
       </c>
       <c r="V161" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.3975499868392944</v>
       </c>
       <c r="W161" t="n">
-        <v>0.07159390300512314</v>
+        <v>0.02038359455764294</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3938150405883789</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.8717166781425476</v>
       </c>
       <c r="W162" t="n">
-        <v>0.03800270706415176</v>
+        <v>0.2283899784088135</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3892979621887207</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.4983816146850586</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0001978333748411387</v>
+        <v>0.0118992431089282</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3954229354858398</v>
       </c>
       <c r="V164" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.8739830255508423</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0004045899549964815</v>
+        <v>0.2290197610855103</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3914718627929688</v>
       </c>
       <c r="V165" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.4045098423957825</v>
       </c>
       <c r="W165" t="n">
-        <v>0.1802864819765091</v>
+        <v>0.0001699889107840136</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3905520439147949</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.8672214150428772</v>
       </c>
       <c r="W166" t="n">
-        <v>0.03394125401973724</v>
+        <v>0.2272136956453323</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4481298923492432</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.8660929799079895</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01972121372818947</v>
+        <v>0.1746931374073029</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.391279935836792</v>
       </c>
       <c r="V168" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4903656244277954</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01517693232744932</v>
+        <v>0.009817973710596561</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4046139717102051</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.875647246837616</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01762386970221996</v>
+        <v>0.2218723446130753</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3889758586883545</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.9012646079063416</v>
       </c>
       <c r="W170" t="n">
-        <v>0.005966490134596825</v>
+        <v>0.2624397575855255</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3893430233001709</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.4868673086166382</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0003688024298753589</v>
+        <v>0.009510986506938934</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3897321224212646</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.404449075460434</v>
       </c>
       <c r="W172" t="n">
-        <v>0.007762563414871693</v>
+        <v>0.0002165887126466259</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4331810474395752</v>
       </c>
       <c r="V173" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.3972223401069641</v>
       </c>
       <c r="W173" t="n">
-        <v>0.2631636261940002</v>
+        <v>0.001293028588406742</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3901619911193848</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.8595712780952454</v>
       </c>
       <c r="W174" t="n">
-        <v>0.01527460385113955</v>
+        <v>0.2203450798988342</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3931159973144531</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.3972780704498291</v>
       </c>
       <c r="W175" t="n">
-        <v>0.003311938839033246</v>
+        <v>1.732285272737499e-05</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3913121223449707</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.3992022275924683</v>
       </c>
       <c r="W176" t="n">
-        <v>0.06332734972238541</v>
+        <v>6.22537627350539e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.400521993637085</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.4942209422588348</v>
       </c>
       <c r="W177" t="n">
-        <v>0.07384331524372101</v>
+        <v>0.008779493160545826</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3934769630432129</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.4211862683296204</v>
       </c>
       <c r="W178" t="n">
-        <v>0.001822385936975479</v>
+        <v>0.0007678056135773659</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3917620182037354</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.4865322113037109</v>
       </c>
       <c r="W179" t="n">
-        <v>0.08457821607589722</v>
+        <v>0.008981389924883842</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3930468559265137</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4010324478149414</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0001111332458094694</v>
+        <v>6.376967940013856e-05</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4042179584503174</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.8704401254653931</v>
       </c>
       <c r="W181" t="n">
-        <v>0.01579428650438786</v>
+        <v>0.217363104224205</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8739430904388428</v>
       </c>
       <c r="V182" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4110070168972015</v>
       </c>
       <c r="W182" t="n">
-        <v>0.008142935112118721</v>
+        <v>0.2143098115921021</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9143209457397461</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.5394178628921509</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1675932258367538</v>
+        <v>0.1405523270368576</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.929595947265625</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.8798446655273438</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2770017981529236</v>
+        <v>0.002475189976394176</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8785200119018555</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.4228609204292297</v>
       </c>
       <c r="W185" t="n">
-        <v>0.04912819713354111</v>
+        <v>0.2076252102851868</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8799419403076172</v>
       </c>
       <c r="V186" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.4033054709434509</v>
       </c>
       <c r="W186" t="n">
-        <v>0.005114065948873758</v>
+        <v>0.2271823287010193</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8876979351043701</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.4991823136806488</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1229102462530136</v>
+        <v>0.1509443819522858</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9252371788024902</v>
       </c>
       <c r="V188" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4032978415489197</v>
       </c>
       <c r="W188" t="n">
-        <v>0.0131908068433404</v>
+        <v>0.2724206745624542</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.870772123336792</v>
       </c>
       <c r="V189" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8746675252914429</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1085451617836952</v>
+        <v>1.517415603302652e-05</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8548979759216309</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4968222081661224</v>
       </c>
       <c r="W190" t="n">
-        <v>0.09830911457538605</v>
+        <v>0.1282182484865189</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8780770301818848</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4942215085029602</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2253458350896835</v>
+        <v>0.1473450660705566</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9158711433410645</v>
       </c>
       <c r="V192" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.4902222752571106</v>
       </c>
       <c r="W192" t="n">
-        <v>0.0007130184094421566</v>
+        <v>0.1811769604682922</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8588080406188965</v>
       </c>
       <c r="V193" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8991562724113464</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2581001818180084</v>
+        <v>0.001627979800105095</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8612990379333496</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4107050001621246</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1207406520843506</v>
+        <v>0.203034982085228</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8654680252075195</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4968346953392029</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1095790565013885</v>
+        <v>0.1358905285596848</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9180011749267578</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4045494198799133</v>
       </c>
       <c r="W196" t="n">
-        <v>0.01043924316763878</v>
+        <v>0.2636327147483826</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8679180145263672</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4906858801841736</v>
       </c>
       <c r="W197" t="n">
-        <v>0.004134129732847214</v>
+        <v>0.1423040777444839</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8556070327758789</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8654349446296692</v>
       </c>
       <c r="W198" t="n">
-        <v>0.253186047077179</v>
+        <v>9.658784983912483e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8628361225128174</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8767784237861633</v>
       </c>
       <c r="W199" t="n">
-        <v>0.0913502499461174</v>
+        <v>0.0001943877578014508</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.9108748435974121</v>
       </c>
       <c r="V200" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.8663997054100037</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2809453308582306</v>
+        <v>0.001978037878870964</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8789441585540771</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.8807279467582703</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1853652000427246</v>
+        <v>3.181900410709204e-06</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5185210704803467</v>
       </c>
       <c r="V202" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.8598244190216064</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02758661471307278</v>
+        <v>0.1164879724383354</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5143020153045654</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4943169355392456</v>
       </c>
       <c r="W203" t="n">
-        <v>0.01223119162023067</v>
+        <v>0.0003994034195784479</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5233390331268311</v>
       </c>
       <c r="V204" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4219726920127869</v>
       </c>
       <c r="W204" t="n">
-        <v>0.06789787113666534</v>
+        <v>0.01027513481676579</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.574552059173584</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.8675485253334045</v>
       </c>
       <c r="W205" t="n">
-        <v>0.001105053466744721</v>
+        <v>0.08584693074226379</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5172691345214844</v>
       </c>
       <c r="V206" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.4966597557067871</v>
       </c>
       <c r="W206" t="n">
-        <v>0.1820676922798157</v>
+        <v>0.000424746482167393</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5183050632476807</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.4959413409233093</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02806591242551804</v>
+        <v>0.0005001360550522804</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5169990062713623</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.4059988558292389</v>
       </c>
       <c r="W208" t="n">
-        <v>8.117382094496861e-06</v>
+        <v>0.01232103351503611</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5167889595031738</v>
       </c>
       <c r="V209" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8629413843154907</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01993298158049583</v>
+        <v>0.1198215037584305</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5175690650939941</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4986339509487152</v>
       </c>
       <c r="W210" t="n">
-        <v>0.02728367410600185</v>
+        <v>0.0003585385566111654</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5190808773040771</v>
       </c>
       <c r="V211" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.8683573007583618</v>
       </c>
       <c r="W211" t="n">
-        <v>0.07022310048341751</v>
+        <v>0.1219940185546875</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.519989013671875</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.8680912852287292</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01490351837128401</v>
+        <v>0.121175192296505</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5166049003601074</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5007616281509399</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01276565436273813</v>
+        <v>0.0002510092745069414</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5213429927825928</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.490996778011322</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0178191252052784</v>
+        <v>0.0009208927513100207</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5213229656219482</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4952061176300049</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01964402198791504</v>
+        <v>0.0006820897688157856</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5711688995361328</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.8590517044067383</v>
       </c>
       <c r="W216" t="n">
-        <v>0.008751178160309792</v>
+        <v>0.08287651091814041</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.518887996673584</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.9056763052940369</v>
       </c>
       <c r="W217" t="n">
-        <v>0.02944990992546082</v>
+        <v>0.1496051996946335</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5197031497955322</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.5165771245956421</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0002866929862648249</v>
+        <v>9.772033990884665e-06</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5185332298278809</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.5091598033905029</v>
       </c>
       <c r="W219" t="n">
-        <v>0.08377698063850403</v>
+        <v>8.786112448433414e-05</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5172488689422607</v>
       </c>
       <c r="V220" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8748307824134827</v>
       </c>
       <c r="W220" t="n">
-        <v>0.1840574890375137</v>
+        <v>0.1278648227453232</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5520570278167725</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.8669714331626892</v>
       </c>
       <c r="W221" t="n">
-        <v>0.02201524004340172</v>
+        <v>0.09917107969522476</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3859729766845703</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.513455867767334</v>
       </c>
       <c r="W222" t="n">
-        <v>0.02408463694155216</v>
+        <v>0.01625188812613487</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.389779806137085</v>
       </c>
       <c r="V223" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.5158712267875671</v>
       </c>
       <c r="W223" t="n">
-        <v>0.1726388931274414</v>
+        <v>0.01589904725551605</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3934268951416016</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4119856953620911</v>
       </c>
       <c r="W224" t="n">
-        <v>0.06312010437250137</v>
+        <v>0.0003444290778134018</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3881750106811523</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.4974210858345032</v>
       </c>
       <c r="W225" t="n">
-        <v>0.0002393927716184407</v>
+        <v>0.01193470507860184</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3922908306121826</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.8991780877113342</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01252093631774187</v>
+        <v>0.2569347023963928</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3961069583892822</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.3972579836845398</v>
       </c>
       <c r="W227" t="n">
-        <v>0.06012785062193871</v>
+        <v>1.324859226770059e-06</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3959329128265381</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.3972624242305756</v>
       </c>
       <c r="W228" t="n">
-        <v>5.61774977541063e-05</v>
+        <v>1.767600565472094e-06</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3955931663513184</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.49465012550354</v>
       </c>
       <c r="W229" t="n">
-        <v>0.06728249043226242</v>
+        <v>0.009812281467020512</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3960201740264893</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.8699625730514526</v>
       </c>
       <c r="W230" t="n">
-        <v>0.03242869675159454</v>
+        <v>0.2246214002370834</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3916089534759521</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.8730493783950806</v>
       </c>
       <c r="W231" t="n">
-        <v>0.003487619804218411</v>
+        <v>0.2317848801612854</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4024291038513184</v>
       </c>
       <c r="V232" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.8711245656013489</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1447402983903885</v>
+        <v>0.2196754366159439</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3959600925445557</v>
       </c>
       <c r="V233" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4033023118972778</v>
       </c>
       <c r="W233" t="n">
-        <v>0.002040903316810727</v>
+        <v>5.39081847819034e-05</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4317121505737305</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.8668124079704285</v>
       </c>
       <c r="W234" t="n">
-        <v>0.005213537253439426</v>
+        <v>0.1893122345209122</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3981490135192871</v>
       </c>
       <c r="V235" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.5162383317947388</v>
       </c>
       <c r="W235" t="n">
-        <v>0.1487192362546921</v>
+        <v>0.01394508685916662</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3963549137115479</v>
       </c>
       <c r="V236" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4913100600242615</v>
       </c>
       <c r="W236" t="n">
-        <v>0.01731254160404205</v>
+        <v>0.00901647936552763</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.392866849899292</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.8978399634361267</v>
       </c>
       <c r="W237" t="n">
-        <v>0.06174489855766296</v>
+        <v>0.2549978494644165</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3898019790649414</v>
       </c>
       <c r="V238" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.8868365883827209</v>
       </c>
       <c r="W238" t="n">
-        <v>0.3114404678344727</v>
+        <v>0.2470434010028839</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3896880149841309</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.3972681760787964</v>
       </c>
       <c r="W239" t="n">
-        <v>0.08578731864690781</v>
+        <v>5.745884118368849e-05</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.440601110458374</v>
       </c>
       <c r="V240" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8599847555160522</v>
       </c>
       <c r="W240" t="n">
-        <v>0.04663615673780441</v>
+        <v>0.1758826375007629</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3964200019836426</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.495249480009079</v>
       </c>
       <c r="W241" t="n">
-        <v>0.06779763847589493</v>
+        <v>0.009767265990376472</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8892219066619873</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.401026725769043</v>
       </c>
       <c r="W242" t="n">
-        <v>0.05494723096489906</v>
+        <v>0.2383345365524292</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8880958557128906</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.5153165459632874</v>
       </c>
       <c r="W243" t="n">
-        <v>0.04187968745827675</v>
+        <v>0.1389644145965576</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8821029663085938</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4213256239891052</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1187828183174133</v>
+        <v>0.2123157531023026</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8797919750213623</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.860945999622345</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1613945364952087</v>
+        <v>0.000355170777766034</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8725650310516357</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.516480565071106</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1286516934633255</v>
+        <v>0.1267961412668228</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8623559474945068</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4863511919975281</v>
       </c>
       <c r="W247" t="n">
-        <v>0.09025564044713974</v>
+        <v>0.1413795799016953</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.868441104888916</v>
       </c>
       <c r="V248" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4100356698036194</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2477472722530365</v>
+        <v>0.2101355493068695</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8773648738861084</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.4883849024772644</v>
       </c>
       <c r="W249" t="n">
-        <v>0.05482468381524086</v>
+        <v>0.1513054221868515</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8719899654388428</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8628953099250793</v>
       </c>
       <c r="W250" t="n">
-        <v>0.05286207050085068</v>
+        <v>8.271275873994455e-05</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8753252029418945</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4118489027023315</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1673071980476379</v>
+        <v>0.2148102819919586</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8710792064666748</v>
       </c>
       <c r="V252" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8797317147254944</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2460531294345856</v>
+        <v>7.486590038752183e-05</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8680069446563721</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.3972471356391907</v>
       </c>
       <c r="W253" t="n">
-        <v>0.124904952943325</v>
+        <v>0.2216147929430008</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.866581916809082</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.8805835247039795</v>
       </c>
       <c r="W254" t="n">
-        <v>0.04415976628661156</v>
+        <v>0.0001960450172191486</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8684439659118652</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.4949202835559845</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1334910839796066</v>
+        <v>0.1395199447870255</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8795788288116455</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5161352157592773</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2264852821826935</v>
+        <v>0.1320912539958954</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8748559951782227</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8918997049331665</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1178206726908684</v>
+        <v>0.0002904880384448916</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8639581203460693</v>
       </c>
       <c r="V258" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4220754504203796</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1221689581871033</v>
+        <v>0.195260301232338</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8767330646514893</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.5169155597686768</v>
       </c>
       <c r="W259" t="n">
-        <v>0.07211105525493622</v>
+        <v>0.129468634724617</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9075560569763184</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8680100440979004</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1093210503458977</v>
+        <v>0.001563887111842632</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.870189905166626</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4044065475463867</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1760835945606232</v>
+        <v>0.2169541418552399</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5263261795043945</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4880321621894836</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0005235879798419774</v>
+        <v>0.001466431771405041</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5454580783843994</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.868625819683075</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0009880926227197051</v>
+        <v>0.1044373884797096</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5210950374603271</v>
       </c>
       <c r="V264" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8647177815437317</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02900608256459236</v>
+        <v>0.1180765926837921</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5519230365753174</v>
       </c>
       <c r="V265" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.8743048310279846</v>
       </c>
       <c r="W265" t="n">
-        <v>0.1524887233972549</v>
+        <v>0.1039300188422203</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5214288234710693</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.8858993053436279</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01386289112269878</v>
+        <v>0.1328387260437012</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5238571166992188</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.8681463599205017</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02204463630914688</v>
+        <v>0.1185350865125656</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5269119739532471</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.873984694480896</v>
       </c>
       <c r="W268" t="n">
-        <v>0.003682692069560289</v>
+        <v>0.1204594746232033</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5243968963623047</v>
       </c>
       <c r="V269" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.5078787803649902</v>
       </c>
       <c r="W269" t="n">
-        <v>0.1762133538722992</v>
+        <v>0.0002728481485974044</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5201678276062012</v>
       </c>
       <c r="V270" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.5165045261383057</v>
       </c>
       <c r="W270" t="n">
-        <v>0.08406637609004974</v>
+        <v>1.341977804258931e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5441799163818359</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4984415769577026</v>
       </c>
       <c r="W271" t="n">
-        <v>4.88869845867157e-05</v>
+        <v>0.002091995673254132</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5297129154205322</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.4028747975826263</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01509409956634045</v>
+        <v>0.01608790829777718</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5241339206695557</v>
       </c>
       <c r="V273" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.8859331011772156</v>
       </c>
       <c r="W273" t="n">
-        <v>0.1749814003705978</v>
+        <v>0.130898654460907</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5279941558837891</v>
       </c>
       <c r="V274" t="n">
-        <v>0.672019362449646</v>
+        <v>0.3975562155246735</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02074326016008854</v>
+        <v>0.01701405644416809</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5213677883148193</v>
       </c>
       <c r="V275" t="n">
-        <v>0.375304102897644</v>
+        <v>0.3972786664962769</v>
       </c>
       <c r="W275" t="n">
-        <v>0.02133459970355034</v>
+        <v>0.0153981102630496</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5750021934509277</v>
       </c>
       <c r="V276" t="n">
-        <v>0.534324586391449</v>
+        <v>0.8863774538040161</v>
       </c>
       <c r="W276" t="n">
-        <v>0.001654667663387954</v>
+        <v>0.09695455431938171</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5242359638214111</v>
       </c>
       <c r="V277" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8884270787239075</v>
       </c>
       <c r="W277" t="n">
-        <v>0.03009107336401939</v>
+        <v>0.132635161280632</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5225801467895508</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.8739807605743408</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0002185307675972581</v>
+        <v>0.1234823912382126</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5211999416351318</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.8676215410232544</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01454763486981392</v>
+        <v>0.1200079247355461</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5215599536895752</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4951372146606445</v>
       </c>
       <c r="W280" t="n">
-        <v>0.001601275173015893</v>
+        <v>0.0006981611368246377</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5221309661865234</v>
       </c>
       <c r="V281" t="n">
-        <v>0.946087121963501</v>
+        <v>0.8986137509346008</v>
       </c>
       <c r="W281" t="n">
-        <v>0.1797388195991516</v>
+        <v>0.1417392939329147</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4060540199279785</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.4034768342971802</v>
       </c>
       <c r="W282" t="n">
-        <v>0.001796052209101617</v>
+        <v>6.641885647695744e-06</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4071450233459473</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.5068999528884888</v>
       </c>
       <c r="W283" t="n">
-        <v>0.009541982784867287</v>
+        <v>0.009951045736670494</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3986051082611084</v>
       </c>
       <c r="V284" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.3972814679145813</v>
       </c>
       <c r="W284" t="n">
-        <v>0.2957966327667236</v>
+        <v>1.752023763401667e-06</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4002549648284912</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.3992037177085876</v>
       </c>
       <c r="W285" t="n">
-        <v>0.009800665080547333</v>
+        <v>1.105120531974535e-06</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3977010250091553</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8719760179519653</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1619043797254562</v>
+        <v>0.22493676841259</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.39717698097229</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.5162592530250549</v>
       </c>
       <c r="W287" t="n">
-        <v>0.002846839604899287</v>
+        <v>0.01418058760464191</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4492170810699463</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.3977371454238892</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0252834390848875</v>
+        <v>0.002650183858349919</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4265811443328857</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.8657959699630737</v>
       </c>
       <c r="W289" t="n">
-        <v>0.06551399081945419</v>
+        <v>0.1929096579551697</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3945159912109375</v>
       </c>
       <c r="V290" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8696718811988831</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0674184262752533</v>
+        <v>0.2257731258869171</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3942210674285889</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8739057779312134</v>
       </c>
       <c r="W291" t="n">
-        <v>0.001886755228042603</v>
+        <v>0.2300974279642105</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3968651294708252</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.8713293671607971</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0004449628759175539</v>
+        <v>0.2251163125038147</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3979339599609375</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.399235725402832</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01339058857411146</v>
+        <v>1.694593265710864e-06</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4539699554443359</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4935091137886047</v>
       </c>
       <c r="W294" t="n">
-        <v>0.006957192439585924</v>
+        <v>0.001563345082104206</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3958609104156494</v>
       </c>
       <c r="V295" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8804615139961243</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01841099187731743</v>
+        <v>0.2348377406597137</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3947429656982422</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.4237094223499298</v>
       </c>
       <c r="W296" t="n">
-        <v>0.02150138467550278</v>
+        <v>0.0008390556322410703</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.39599609375</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.4936195313930511</v>
       </c>
       <c r="W297" t="n">
-        <v>0.006664112210273743</v>
+        <v>0.009530335664749146</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3994228839874268</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.8999826908111572</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0176972821354866</v>
+        <v>0.2505601346492767</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3983569145202637</v>
       </c>
       <c r="V299" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8650611042976379</v>
       </c>
       <c r="W299" t="n">
-        <v>0.1672910749912262</v>
+        <v>0.2178128063678741</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3944289684295654</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.5257034301757812</v>
       </c>
       <c r="W300" t="n">
-        <v>0.01431929040700197</v>
+        <v>0.0172329843044281</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3990001678466797</v>
       </c>
       <c r="V301" t="n">
-        <v>0.654965877532959</v>
+        <v>0.5160539150238037</v>
       </c>
       <c r="W301" t="n">
-        <v>0.06551844626665115</v>
+        <v>0.01370157953351736</v>
       </c>
     </row>
     <row r="302" spans="1:23">
